--- a/.output/public/files/sinh_vien_template.xlsx
+++ b/.output/public/files/sinh_vien_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\HTTT\DoAnTN\Project\FE3\public\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\HTTT\DoAnTN\Project\FE3\public\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B0A702E9-5660-4F9D-8EA1-1B37955FBC20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9AEED45-5FA0-44EE-8CA1-8ED99D3517CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B8962491-F3BD-455F-A1CF-BA3E487930C5}"/>
+    <workbookView xWindow="3075" yWindow="3075" windowWidth="21600" windowHeight="11295" xr2:uid="{B8962491-F3BD-455F-A1CF-BA3E487930C5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,14 +36,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>STT</t>
   </si>
   <si>
-    <t>mssv</t>
-  </si>
-  <si>
     <t>ten</t>
   </si>
   <si>
@@ -51,16 +48,33 @@
   </si>
   <si>
     <t>lop</t>
+  </si>
+  <si>
+    <t>maso</t>
+  </si>
+  <si>
+    <t>hodem</t>
+  </si>
+  <si>
+    <t>email</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -83,13 +97,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -422,37 +440,59 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{911FCA87-15F1-4ABC-A4FB-DB4A063AD3B9}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.6640625" customWidth="1"/>
-    <col min="2" max="2" width="15.109375" customWidth="1"/>
-    <col min="3" max="3" width="19.77734375" customWidth="1"/>
-    <col min="4" max="4" width="15.77734375" customWidth="1"/>
-    <col min="5" max="5" width="19.77734375" customWidth="1"/>
+    <col min="1" max="1" width="5.7109375" customWidth="1"/>
+    <col min="2" max="3" width="15.140625" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="19.7109375" customWidth="1"/>
+    <col min="7" max="7" width="32.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G6" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
